--- a/data/income_statement/2digits/size/71_IS_MEDIUM.xlsx
+++ b/data/income_statement/2digits/size/71_IS_MEDIUM.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>71-Architectural and engineering activities; technical testing and analysis</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>71-Architectural and engineering activities; technical testing and analysis</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,644 +841,729 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>1369432.35516</v>
+        <v>1417771.0964</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>1572208.35728</v>
+        <v>1476565.64732</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>2089281.97091</v>
+        <v>2033103.6927</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>2424309.07847</v>
+        <v>2292071.51448</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>3026653.49716</v>
+        <v>2980592.33311</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>5442380.66138</v>
+        <v>3721839.84965</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>4731810.37435</v>
+        <v>4953393.43442</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>5904411.967560001</v>
+        <v>5985161.6506</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>8691386.741830001</v>
+        <v>8812845.91681</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>7384620.067489999</v>
+        <v>7323561.53783</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>9278694.967729999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>9141843.013110001</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>11009239.59</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>1145491.5112</v>
+        <v>1185639.25727</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>1360343.86888</v>
+        <v>1273729.63089</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>1743363.49263</v>
+        <v>1710254.14037</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>2056044.66514</v>
+        <v>1898739.32293</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>2463306.18426</v>
+        <v>2435450.50956</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>4773716.134690001</v>
+        <v>3047421.02218</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>3884613.93554</v>
+        <v>4099870.95861</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>4985679.86693</v>
+        <v>5012452.00234</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>7260731.357290001</v>
+        <v>7262231.89247</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>6595356.416680001</v>
+        <v>6582685.99417</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>8138193.71349</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>8006261.21192</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>8981032.184</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>205301.28815</v>
+        <v>208341.11609</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>195152.37081</v>
+        <v>182659.672</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>307138.1895</v>
+        <v>287740.43063</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>322008.95082</v>
+        <v>354642.55281</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>510715.99628</v>
+        <v>503830.48394</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>624886.19218</v>
+        <v>606013.19201</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>798285.64624</v>
+        <v>796980.7055</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>817841.1169</v>
+        <v>871300.41334</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>1291543.14454</v>
+        <v>1420104.29844</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>694381.12839</v>
+        <v>660277.59025</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>1021484.85238</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>1030217.26422</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>1877729.403</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>18639.55581</v>
+        <v>23790.72304</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>16712.11759</v>
+        <v>20176.34443</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>38780.28878</v>
+        <v>35109.1217</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>46255.46251</v>
+        <v>38689.63873999999</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>52631.31662</v>
+        <v>41311.33961</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>43778.33451</v>
+        <v>68405.63546</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>48910.79257</v>
+        <v>56541.77030999999</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>100890.98373</v>
+        <v>101409.23492</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>139112.24</v>
+        <v>130509.7259</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>94882.52242000001</v>
+        <v>80597.95341</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>119016.40186</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>105364.53697</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>150478.003</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>14403.01709</v>
+        <v>5826.987160000001</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>16850.80822</v>
+        <v>6389.04135</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>26806.34378</v>
+        <v>26914.02448</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>22582.64304</v>
+        <v>82601.56092</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>103302.26184</v>
+        <v>100641.42845</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1738580.5007</v>
+        <v>14858.5629</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>54312.13843</v>
+        <v>53176.64407</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>47372.29215</v>
+        <v>54985.16834</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>87952.19266999999</v>
+        <v>90672.35169</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>79563.16157</v>
+        <v>64253.97898000001</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>125286.3005</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>139217.54761</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>165348.055</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>12318.46438</v>
+        <v>3887.9316</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>15445.28688</v>
+        <v>4963.5347</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>24675.34061</v>
+        <v>24929.31291</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>17768.4592</v>
+        <v>62677.90054000001</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>78825.65878</v>
+        <v>76818.60993999999</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>1731459.73449</v>
+        <v>8610.65625</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>42394.50594</v>
+        <v>41851.72343999999</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>35649.00794999999</v>
+        <v>44648.8349</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>66307.76828</v>
+        <v>69835.61246999999</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>66604.39902</v>
+        <v>51832.94308</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>112095.73775</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>125589.985</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>131956.565</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>1821.10746</v>
+        <v>1668.19675</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>967.7349199999999</v>
+        <v>987.74839</v>
       </c>
       <c r="E11" s="48" t="n">
-        <v>1850.55736</v>
+        <v>1703.39654</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>3522.68202</v>
+        <v>1913.79254</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>24097.33685</v>
+        <v>23775.5523</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>5819.17708</v>
+        <v>5211.26971</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>8070.597519999999</v>
+        <v>8133.07863</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>8837.89191</v>
+        <v>8806.351939999999</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>15034.21762</v>
+        <v>17221.39794</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>11275.39527</v>
+        <v>10922.97327</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>7487.96241</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>7774.6395</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>27865.993</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
-        <v>263.44525</v>
+        <v>270.85881</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>437.78642</v>
+        <v>437.75826</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>280.44581</v>
+        <v>281.31503</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>1291.50182</v>
+        <v>18009.86784</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>379.26621</v>
+        <v>47.26621</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>1301.58913</v>
+        <v>1036.63694</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>3847.03497</v>
+        <v>3191.842</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>2885.39229</v>
+        <v>1529.9815</v>
       </c>
       <c r="K12" s="48" t="n">
-        <v>6610.20677</v>
+        <v>3615.34128</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>1683.36728</v>
+        <v>1498.06263</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>5702.60034</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>5852.92311</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>5525.497</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>1355029.33807</v>
+        <v>1411944.10924</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>1555357.54906</v>
+        <v>1470176.60597</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>2062475.62713</v>
+        <v>2006189.66822</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>2401726.43543</v>
+        <v>2209469.95356</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>2923351.23532</v>
+        <v>2879950.90466</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>3703800.16068</v>
+        <v>3706981.28675</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>4677498.23592</v>
+        <v>4900216.79035</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>5857039.67541</v>
+        <v>5930176.48226</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>8603434.54916</v>
+        <v>8722173.565119999</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>7305056.90592</v>
+        <v>7259307.55885</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>9153408.667229999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>9002625.465500001</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>10843891.535</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>1015336.49718</v>
+        <v>1054581.95563</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>1127141.18975</v>
+        <v>1092443.66623</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>1536111.56919</v>
+        <v>1537843.94444</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>1763538.50246</v>
+        <v>1658554.4611</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>2241461.98368</v>
+        <v>2247867.6979</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>2843155.09168</v>
+        <v>2817512.18604</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>3648373.14166</v>
+        <v>3847580.98123</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>4620565.23459</v>
+        <v>4698123.997909999</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>6761831.279860001</v>
+        <v>6898409.78252</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>5866864.18493</v>
+        <v>5877080.039559999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>7459866.74867</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>7363761.270290001</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>9063829.780999999</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>40436.62003</v>
+        <v>32827.40287</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>32789.52331</v>
+        <v>25374.69361</v>
       </c>
       <c r="E15" s="48" t="n">
-        <v>89520.44271999999</v>
+        <v>78985.62728999999</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>67429.79535</v>
+        <v>57466.41862</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>87064.06844999999</v>
+        <v>68289.19418999999</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>143534.84647</v>
+        <v>126229.10022</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>119775.06301</v>
+        <v>99824.29483999999</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>357833.53567</v>
+        <v>320725.69446</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>574802.1060599999</v>
+        <v>509831.50928</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>246224.34446</v>
+        <v>209530.46693</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>363105.45088</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>322471.75547</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>578112.574</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>99478.84374000001</v>
+        <v>94239.23628</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>120808.44247</v>
+        <v>98830.25758</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>308725.40612</v>
+        <v>307098.05888</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>306468.11191</v>
+        <v>266381.14785</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>421683.87282</v>
+        <v>396120.78715</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>458219.66487</v>
+        <v>403764.31326</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>693300.36725</v>
+        <v>677822.42949</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>881801.1283099999</v>
+        <v>865296.5253400001</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>1802947.67158</v>
+        <v>1790819.31123</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>490356.66996</v>
+        <v>479735.45415</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>721889.64489</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>737000.58034</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1656145.178</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>874922.22439</v>
+        <v>927420.4991899999</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>967866.4319600001</v>
+        <v>945446.3343799999</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>1132306.7051</v>
+        <v>1131166.76273</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>1385158.04409</v>
+        <v>1330527.05086</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>1723940.99637</v>
+        <v>1775098.90511</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>2227060.59607</v>
+        <v>2274977.0844</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>2827284.16487</v>
+        <v>3059637.84687</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>3347995.49269</v>
+        <v>3479358.84603</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>4365576.73055</v>
+        <v>4576920.02713</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>5113219.721229999</v>
+        <v>5181835.10855</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>6350438.00307</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>6277566.32186</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>6755406.592</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>498.80902</v>
+        <v>94.81729000000001</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>5676.792010000001</v>
+        <v>22792.38066</v>
       </c>
       <c r="E18" s="48" t="n">
-        <v>5559.01525</v>
+        <v>20593.49554</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>4482.55111</v>
+        <v>4179.84377</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>8773.046040000001</v>
+        <v>8358.811449999999</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>14339.98427</v>
+        <v>12541.68816</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>8013.546530000001</v>
+        <v>10296.41003</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>32935.07792</v>
+        <v>32742.93208</v>
       </c>
       <c r="K18" s="48" t="n">
-        <v>18504.77167</v>
+        <v>20838.93488</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>17063.44928</v>
+        <v>5979.009929999999</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>24433.64983</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>26722.61262</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>74165.43700000001</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>339692.84089</v>
+        <v>357362.15361</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>428216.3593100001</v>
+        <v>377732.93974</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>526364.05794</v>
+        <v>468345.7237800001</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>638187.9329700001</v>
+        <v>550915.4924600001</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>681889.25164</v>
+        <v>632083.20676</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>860645.069</v>
+        <v>889469.1007099999</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>1029125.09426</v>
+        <v>1052635.80912</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>1236474.44082</v>
+        <v>1232052.48435</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>1841603.2693</v>
+        <v>1823763.7826</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>1438192.72099</v>
+        <v>1382227.51929</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>1693541.91856</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>1638864.19521</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>1780061.754</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>178181.82099</v>
+        <v>173024.18696</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>220988.10661</v>
+        <v>193516.30241</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>292311.75822</v>
+        <v>245451.53162</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>362373.49434</v>
+        <v>344935.75336</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>442588.41996</v>
+        <v>450257.76254</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>518640.82906</v>
+        <v>562964.6914</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>619481.79279</v>
+        <v>736484.36623</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>716388.46985</v>
+        <v>915878.5858499999</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>1027053.49525</v>
+        <v>1211602.58762</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>920902.5483</v>
+        <v>826686.25988</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>1073883.60897</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>944892.98561</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>1116580.497</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2843.0909</v>
+        <v>2820.81607</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>1039.55581</v>
+        <v>719.57181</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>2647.22928</v>
@@ -1586,484 +1572,544 @@
         <v>1475.33662</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>8025.07717</v>
+        <v>6453.10574</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>14087.45055</v>
+        <v>10657.68833</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>20216.94561</v>
+        <v>18559.35578</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>23674.39562</v>
+        <v>19339.65561</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>47106.38309</v>
+        <v>40262.32504</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>46042.82316</v>
+        <v>45426.24277</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>68419.28962000001</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>63403.16398</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>47248.536</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>9062.34836</v>
+        <v>8897.25641</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>11357.38184</v>
+        <v>9687.179980000001</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>20394.14946</v>
+        <v>19826.25135</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>27028.77724</v>
+        <v>22715.85164</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>27456.30579</v>
+        <v>23320.11666</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>45571.78764</v>
+        <v>40011.46238</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>46188.21661</v>
+        <v>47983.88634</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>58191.21334999999</v>
+        <v>58735.46221</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>103778.21992</v>
+        <v>104029.63184</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>67853.91613</v>
+        <v>62129.1012</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>124322.10352</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>111435.5831</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>138830.172</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>166276.38173</v>
+        <v>161306.11448</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>208591.16896</v>
+        <v>183109.55062</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>269270.37948</v>
+        <v>222978.05099</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>333869.38048</v>
+        <v>320744.5651</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>407107.037</v>
+        <v>420484.54014</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>458981.59087</v>
+        <v>512295.54069</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>553076.6305699999</v>
+        <v>669941.1241099999</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>634522.8608800001</v>
+        <v>837803.46803</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>876168.89224</v>
+        <v>1067310.63074</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>807005.80901</v>
+        <v>719130.91591</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>881142.21583</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>770054.23853</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>930501.789</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>161511.0199</v>
+        <v>184337.96665</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>207228.2527</v>
+        <v>184216.63733</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>234052.29972</v>
+        <v>222894.19216</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>275814.43863</v>
+        <v>205979.7391</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>239300.83168</v>
+        <v>181825.44422</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>342004.23994</v>
+        <v>326504.40931</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>409643.3014699999</v>
+        <v>316151.44289</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>520085.97097</v>
+        <v>316173.8985</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>814549.7740500001</v>
+        <v>612161.19498</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>517290.1726899999</v>
+        <v>555541.2594100001</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>619658.30959</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>693971.2096000001</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>663481.257</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>123197.05418</v>
+        <v>171535.44267</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>113687.29117</v>
+        <v>102936.98632</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>181178.60634</v>
+        <v>151848.67215</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>125363.17868</v>
+        <v>221103.40812</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>246834.26299</v>
+        <v>375334.84899</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>278875.1452800001</v>
+        <v>393637.62382</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>443011.154</v>
+        <v>975520.9495600001</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>411587.38461</v>
+        <v>930357.6800599999</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>535170.34785</v>
+        <v>947179.2339199999</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>3892982.60977</v>
+        <v>3743106.05337</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>2180043.98157</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>2108493.03899</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>1786196.97</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>2053.40311</v>
+        <v>5299.77987</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>8011.96506</v>
+        <v>4743.956429999999</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>31410.14584</v>
+        <v>4734.52856</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>9028.8326</v>
+        <v>8800.807699999999</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>6689.82859</v>
+        <v>31934.62189</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>12119.06243</v>
+        <v>24011.28484</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>24421.21167</v>
+        <v>40717.69446</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>27963.8113</v>
+        <v>41799.3999</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>34929.18945</v>
+        <v>9667.123860000002</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>58269.26493</v>
+        <v>10100.63928</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>61091.68209</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>39812.4421</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>7197.325</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
-        <v>253.54621</v>
+        <v>252.40468</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>1473.71254</v>
+        <v>232.35499</v>
       </c>
       <c r="E27" s="48" t="n">
-        <v>2508.14255</v>
+        <v>70.64255</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>1340.05163</v>
+        <v>914.51638</v>
       </c>
       <c r="G27" s="48" t="n">
-        <v>7927.64913</v>
+        <v>6304.05925</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>3646.85762</v>
+        <v>1537.12972</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>19149.91011</v>
+        <v>9817.488859999999</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>14559.54647</v>
+        <v>2252.05884</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>25419.29637</v>
+        <v>75713.83139000001</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>21344.06181</v>
+        <v>79929.54554000001</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>89501.8533</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>77908.91209999999</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>964.4829999999999</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>11599.591</v>
+        <v>10001.18589</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>11437.25116</v>
+        <v>7231.303859999999</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>13484.73143</v>
+        <v>9805.929119999999</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>23771.93198</v>
+        <v>39673.08765</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>23499.69557</v>
+        <v>33576.9252</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>30444.67556</v>
+        <v>23906.03671</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>37718.84179</v>
+        <v>52866.15911</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>39661.83617</v>
+        <v>72054.38148000001</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>63749.37981</v>
+        <v>116549.06794</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>119093.37984</v>
+        <v>79352.98162999999</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>115504.88827</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>98667.57071000001</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>86582.591</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
-        <v>1.74528</v>
+        <v>890.23451</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>31.82659</v>
+        <v>95.51414</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>282.39493</v>
       </c>
       <c r="F29" s="48" t="n">
-        <v>217.65605</v>
+        <v>273.62788</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>1189.70022</v>
+        <v>1064.71336</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>228.27282</v>
+        <v>973.9213100000001</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>1334.99233</v>
+        <v>2027.60578</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>55.3079</v>
+        <v>1222.47546</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>2774.17882</v>
+        <v>2960.1076</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>34.51219</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>1220.97717</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>465.1612699999999</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>252.211</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>4467.641189999999</v>
+        <v>4462.58995</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>3813.71468</v>
+        <v>3789.16408</v>
       </c>
       <c r="E30" s="48" t="n">
-        <v>1021.06461</v>
+        <v>982.5968099999999</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>1533.77423</v>
+        <v>1418.32149</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>3154.5903</v>
+        <v>4198.30016</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>5745.76737</v>
+        <v>5469.813690000001</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>7819.63246</v>
+        <v>9641.00655</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>7789.40058</v>
+        <v>10004.70196</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>6233.641689999999</v>
+        <v>7829.3494</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>10681.42029</v>
+        <v>7656.6729</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>11613.60592</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>10204.98308</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>17861.651</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>22737.67922</v>
+        <v>42072.30115</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>1129.88899</v>
+        <v>215.65595</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>3161.84094</v>
+        <v>2897.442</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>707.80567</v>
+        <v>607.9353599999999</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>465.02443</v>
+        <v>417.75039</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>1156.21806</v>
+        <v>849.03622</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>807.0191499999999</v>
+        <v>783.0915500000001</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>1828.27406</v>
+        <v>50626.25048999999</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>1591.44561</v>
+        <v>1144.89442</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>864.484</v>
+        <v>846.7087299999999</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>3052.15045</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>4270.86258</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>2563.773</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>72406.57897</v>
+        <v>99879.54607</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>75460.70306</v>
+        <v>74653.10125000001</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>109174.16507</v>
+        <v>113145.95286</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>72656.27806999999</v>
+        <v>113108.33616</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>177757.01349</v>
+        <v>236853.51111</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>181702.47172</v>
+        <v>261277.96555</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>313655.35712</v>
+        <v>775976.85334</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>291910.07338</v>
+        <v>710049.68199</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>361180.42834</v>
+        <v>657609.29191</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>3621140.08453</v>
+        <v>3468693.18415</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>1827261.66305</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>1823372.55196</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>1547350.018</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
-        <v>48.16013</v>
+        <v>0</v>
       </c>
       <c r="D33" s="48" t="n">
-        <v>0.00205</v>
+        <v>166.56707</v>
       </c>
       <c r="E33" s="48" t="n">
         <v>0</v>
       </c>
       <c r="F33" s="48" t="n">
-        <v>180.30225</v>
+        <v>88.86859</v>
       </c>
       <c r="G33" s="48" t="n">
-        <v>734.1176999999999</v>
+        <v>0</v>
       </c>
       <c r="H33" s="48" t="n">
         <v>45.95951</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>1361.67684</v>
+        <v>240.43278</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>159.95424</v>
+        <v>77.82437</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>0</v>
@@ -2074,14 +2120,19 @@
       <c r="M33" s="48" t="n">
         <v>2364.40173</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>26247.042</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>157.19289</v>
+        <v>3.22575</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>0</v>
@@ -2090,10 +2141,10 @@
         <v>134.64928</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>8.63632</v>
+        <v>0</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>6.68525</v>
+        <v>0</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>0</v>
@@ -2113,272 +2164,307 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>9471.516180000001</v>
+        <v>8674.174799999999</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>12328.22704</v>
+        <v>11809.36855</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>20001.47169</v>
+        <v>19794.53604</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>15917.90988</v>
+        <v>56217.90691000001</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>25409.95831</v>
+        <v>60984.96763</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>43785.86019000001</v>
+        <v>75566.47627</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>36742.51253</v>
+        <v>83450.61713</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>27659.18051</v>
+        <v>42270.90557</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>39292.78776000001</v>
+        <v>75705.5674</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>61081.87711</v>
+        <v>96018.28387999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>68432.75959</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>51426.15346</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>97177.876</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>75260.97364</v>
+        <v>103193.80749</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>78993.84468000001</v>
+        <v>81779.76555000001</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>106216.5858</v>
+        <v>117941.69787</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>92783.72301</v>
+        <v>164103.53121</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>155308.16226</v>
+        <v>285035.72319</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>168106.09898</v>
+        <v>279156.30758</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>257611.94251</v>
+        <v>611846.9107</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>249683.49639</v>
+        <v>568187.3862300001</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>355287.48907</v>
+        <v>610168.56726</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>3636421.57531</v>
+        <v>3458381.51082</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>1897530.23444</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>1782702.43143</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>1450306.662</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>321.0319699999999</v>
+        <v>271.26658</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>383.72997</v>
+        <v>187.09921</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>384.37115</v>
+        <v>339.35901</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>157.59945</v>
+        <v>140.76257</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>291.77457</v>
+        <v>281.33539</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>771.97394</v>
+        <v>442.31052</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>3032.65404</v>
+        <v>2046.27135</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>529.9765500000001</v>
+        <v>406.8460899999999</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>2225.93144</v>
+        <v>2022.48807</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>800.69337</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>993.8915800000001</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>912.98223</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>2841.686</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>5524.704019999999</v>
+        <v>5484.704019999999</v>
       </c>
       <c r="D38" s="48" t="n">
         <v>5297.812300000001</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>2568.80398</v>
+        <v>2424.94126</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>6135.85438</v>
+        <v>5606.00254</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>5058.755480000001</v>
+        <v>6692.15214</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>8241.54558</v>
+        <v>8370.2356</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>13270.78815</v>
+        <v>18351.14238</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>16257.01262</v>
+        <v>31549.20264</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>26144.17817</v>
+        <v>38782.03837</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>41414.96343</v>
+        <v>34915.44893999999</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>19250.37597</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>17200.62008</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>14775.593</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
-        <v>77.69866999999999</v>
+        <v>29.20897</v>
       </c>
       <c r="D39" s="48" t="n">
-        <v>204.78888</v>
+        <v>64.86948</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>1611.85156</v>
+        <v>122.24419</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>197.01068</v>
+        <v>8.0886</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>144.92258</v>
+        <v>138.97452</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>261.424</v>
+        <v>1.78874</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>4.94154</v>
+        <v>4.98349</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>1118.10394</v>
+        <v>1095.15947</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>383.27781</v>
+        <v>123.41627</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>16286.98894</v>
+        <v>46.38671</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>452.2171</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>452.24649</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>402.068</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>67254.95490000001</v>
+        <v>94335.77770000001</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>70424.03375</v>
+        <v>72268.99747</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>94096.43050999999</v>
+        <v>108905.26236</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>76731.61689</v>
+        <v>140568.51513</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>146763.45863</v>
+        <v>249572.63843</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>147731.57303</v>
+        <v>248304.13272</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>229185.88822</v>
+        <v>550929.40903</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>226065.81301</v>
+        <v>515504.81579</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>306334.2859199999</v>
+        <v>557042.10202</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>3541080.33358</v>
+        <v>3389674.84819</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>1775592.20985</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>1667891.51843</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>1369602.338</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>0.71976</v>
+        <v>0</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
       </c>
       <c r="E41" s="48" t="n">
-        <v>21.74092</v>
+        <v>0</v>
       </c>
       <c r="F41" s="48" t="n">
         <v>198.55517</v>
       </c>
       <c r="G41" s="48" t="n">
-        <v>338.88188</v>
+        <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
         <v>108.8869</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>257.06389</v>
+        <v>0.49083</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>670.2626300000001</v>
+        <v>45.06813</v>
       </c>
       <c r="K41" s="48" t="n">
-        <v>1525.90603</v>
+        <v>900.7115299999999</v>
       </c>
       <c r="L41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>10547.9473</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>22619.138</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,371 +2516,421 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>2081.86432</v>
+        <v>3072.85022</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>2683.47978</v>
+        <v>3960.98709</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>7533.3116</v>
+        <v>6149.81497</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>9363.086439999999</v>
+        <v>17581.6072</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2710.36912</v>
+        <v>28350.62271</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>10990.69553</v>
+        <v>21928.9531</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>11860.60667</v>
+        <v>40514.61362</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>5042.32764</v>
+        <v>19586.29411</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>18673.9097</v>
+        <v>11297.811</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>36838.59598999999</v>
+        <v>32944.13361</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>90693.59264</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>85697.11690000001</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>40065.839</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>40808.12727</v>
+        <v>49956.58462</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>40880.09879</v>
+        <v>39017.20778</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>38792.20501999999</v>
+        <v>35520.79752</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>49388.73735</v>
+        <v>47657.27099</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>55890.83806</v>
+        <v>55738.33652</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>71361.43140999999</v>
+        <v>84207.59024</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>104998.56693</v>
+        <v>140815.16727</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>100123.4926</v>
+        <v>180963.764</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>148881.2499</v>
+        <v>286201.23831</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>224335.98937</v>
+        <v>275600.1383</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>223644.71773</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>219140.73443</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>178451.713</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>34366.3591</v>
+        <v>38231.92882</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>34620.21608</v>
+        <v>33659.02518</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>36060.97323</v>
+        <v>32845.56968</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>45571.13158</v>
+        <v>44965.37425</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>51920.54898000001</v>
+        <v>47273.77314</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>67437.91652</v>
+        <v>81107.10411</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>99358.86463</v>
+        <v>136083.22276</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>95022.29123999999</v>
+        <v>174092.58502</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>145548.40402</v>
+        <v>274380.3355</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>202589.42054</v>
+        <v>188579.88563</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>208598.47046</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>208309.26364</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>168089.961</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>6441.76817</v>
+        <v>11724.6558</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>6259.88271</v>
+        <v>5358.182599999999</v>
       </c>
       <c r="E46" s="48" t="n">
-        <v>2731.23179</v>
+        <v>2675.22784</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>3817.60577</v>
+        <v>2691.89674</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3970.28908</v>
+        <v>8464.56338</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>3923.514889999999</v>
+        <v>3100.48613</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>5639.7023</v>
+        <v>4731.944509999999</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>5101.20136</v>
+        <v>6871.178980000001</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>3332.84588</v>
+        <v>11820.90281</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>21746.56883</v>
+        <v>87020.25267</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>15046.24727</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>10831.47079</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>10361.752</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>168638.97317</v>
+        <v>202723.01721</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>201041.6004</v>
+        <v>166356.65032</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>270222.11524</v>
+        <v>221280.36892</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>259005.15695</v>
+        <v>215322.34502</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>274936.09435</v>
+        <v>216386.2335</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>381411.85483</v>
+        <v>356778.13531</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>490043.9460300001</v>
+        <v>539010.3144800001</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>581866.36659</v>
+        <v>497380.42833</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>845551.38293</v>
+        <v>662970.62333</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>549515.2177799999</v>
+        <v>564665.66366</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>678527.33899</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>800621.08273</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>820919.852</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>8136.1128</v>
+        <v>5726.51008</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>12080.61644</v>
+        <v>6227.3181</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>14037.42177</v>
+        <v>12517.7228</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>15765.40409</v>
+        <v>10283.70119</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>25162.77488</v>
+        <v>34455.8094</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>26361.25736</v>
+        <v>56515.723</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>29891.92607</v>
+        <v>101389.56302</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>54154.6521</v>
+        <v>318820.01059</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>62510.01177</v>
+        <v>194853.54297</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>56957.67373</v>
+        <v>88343.47278</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>144619.40248</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>74498.96281</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>74368.09299999999</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>214.85083</v>
+        <v>135.00622</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>174.8115</v>
+        <v>202.72535</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>152.35098</v>
+        <v>68.37733</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>38.32075</v>
+        <v>26.35922</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>470.67225</v>
+        <v>300.94438</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>675.3331900000001</v>
+        <v>168.46692</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>431.5788</v>
+        <v>287.15162</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>3668.96417</v>
+        <v>3601.16851</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>2228.79681</v>
+        <v>822.8932600000001</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>490.30518</v>
+        <v>465.1709</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>1130.26384</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>1007.06348</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>1416.23</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>7921.26197</v>
+        <v>5591.503860000001</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>11905.80494</v>
+        <v>6024.59275</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>13885.07079</v>
+        <v>12449.34547</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>15727.08334</v>
+        <v>10257.34197</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>24692.10263</v>
+        <v>34154.86502</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>25685.92417</v>
+        <v>56347.25608</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>29460.34727</v>
+        <v>101102.4114</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>50485.68793</v>
+        <v>315218.84208</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>60281.21496</v>
+        <v>194030.64971</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>56467.36855</v>
+        <v>87878.30188</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>143489.13864</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>73491.89933</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>72951.863</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>8048.1574</v>
+        <v>7310.33874</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>8246.38013</v>
+        <v>12034.93435</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>129292.86404</v>
+        <v>117647.70852</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>25105.59735</v>
+        <v>19011.22252</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>17848.42151</v>
+        <v>12391.70913</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>91061.85351999999</v>
+        <v>86553.34925999999</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>38713.9522</v>
+        <v>48376.62725</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>144534.52199</v>
+        <v>135687.18979</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>62484.82712</v>
+        <v>70063.8861</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>111972.25001</v>
+        <v>88925.59066</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>115459.80418</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>107246.82199</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>101322.193</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>314.45392</v>
+        <v>188.90192</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>28.99571</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>578.6593</v>
+        <v>209.5234</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>0</v>
@@ -2798,220 +2939,248 @@
         <v>0</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>74.27921000000001</v>
+        <v>1.87095</v>
       </c>
       <c r="I52" s="48" t="n">
         <v>0</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>1746.90999</v>
+        <v>24.13965</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>1585.33709</v>
+        <v>1436.45045</v>
       </c>
       <c r="L52" s="48" t="n">
         <v>1610.07018</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>1521.03763</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>1193.02747</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>1254.28</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>1680.89472</v>
+        <v>1780.51089</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>1038.66656</v>
+        <v>1088.15665</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>4205.965230000001</v>
+        <v>4521.17243</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>728.5828100000001</v>
+        <v>553.7611899999999</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>771.3815999999999</v>
+        <v>404.62517</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>1559.70655</v>
+        <v>1259.04677</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>1415.9112</v>
+        <v>5627.4215</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>11177.2487</v>
+        <v>11449.55321</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>3569.02845</v>
+        <v>2343.89543</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>7473.18194</v>
+        <v>4313.62464</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>19477.0103</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>18339.12777</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>3441.185</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>6052.80876</v>
+        <v>5340.925929999999</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>7178.71786</v>
+        <v>10917.78199</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>124508.23951</v>
+        <v>112917.01269</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>24377.01454</v>
+        <v>18457.46133</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>17077.03991</v>
+        <v>11987.08396</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>89427.86776000001</v>
+        <v>85292.43154000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>37298.041</v>
+        <v>42749.20575</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>131610.3633</v>
+        <v>124213.49693</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>57330.46158</v>
+        <v>66283.54022</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>102888.99789</v>
+        <v>83001.89584</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>94461.75625000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>87714.66675</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>96626.728</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>168726.92857</v>
+        <v>201139.18855</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>204875.83671</v>
+        <v>160549.03407</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>154966.67297</v>
+        <v>116150.3832</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>249664.96369</v>
+        <v>206594.82369</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>282250.4477200001</v>
+        <v>238450.33377</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>316711.25867</v>
+        <v>326740.50905</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>481221.9199</v>
+        <v>592023.25025</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>491486.4967</v>
+        <v>680513.2491300001</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>845576.56758</v>
+        <v>787760.2802</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>494500.6415</v>
+        <v>564083.5457799999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>707686.9372899999</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>767873.22355</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>793965.752</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>29373.74902</v>
+        <v>36346.26882</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>37661.72969</v>
+        <v>31331.36592</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>42400.7833</v>
+        <v>37745.75795000001</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>42200.13497</v>
+        <v>35712.78298</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>55750.16187</v>
+        <v>54255.78927</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>66670.55816</v>
+        <v>63389.67053</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>80243.01271000001</v>
+        <v>80015.62725999999</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>104159.74603</v>
+        <v>109442.02388</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>140213.12565</v>
+        <v>133900.98671</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>174949.47448</v>
+        <v>153531.44651</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>162355.64225</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>150770.62361</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>265093.565</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>139353.17955</v>
+        <v>164792.91973</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>167214.10702</v>
+        <v>129217.66815</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>112565.88967</v>
+        <v>78404.62525</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>207464.82872</v>
+        <v>170882.04071</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>226500.28585</v>
+        <v>184194.5445</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>250040.70051</v>
+        <v>263350.83852</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>400978.90719</v>
+        <v>512007.62299</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>387326.75067</v>
+        <v>571071.22525</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>705363.4419300001</v>
+        <v>653859.29349</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>319551.16702</v>
+        <v>410552.09927</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>545331.29504</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>617102.59994</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>528872.187</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>257</v>
+        <v>175</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>309</v>
+        <v>181</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>351</v>
+        <v>223</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>427</v>
+        <v>246</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>375</v>
+        <v>252</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>428</v>
+        <v>285</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>494</v>
+        <v>331</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>633</v>
+        <v>405</v>
       </c>
       <c r="K59" s="35" t="n">
-        <v>857</v>
+        <v>525</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>415</v>
+        <v>321</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>307</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>